--- a/Documentos de referencia/Pinouts.xlsx
+++ b/Documentos de referencia/Pinouts.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="109">
   <si>
     <t xml:space="preserve">Basic Atmega328</t>
   </si>
@@ -250,30 +250,81 @@
     <t xml:space="preserve">Placa Stepper Shield</t>
   </si>
   <si>
+    <t xml:space="preserve">Top Connection Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.º Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXD / RX DEBUG</t>
   </si>
   <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
     <t xml:space="preserve">RXD / TX DEBUG</t>
   </si>
   <si>
+    <t xml:space="preserve">A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELAY_SIG</t>
   </si>
   <si>
     <t xml:space="preserve">FRENO</t>
   </si>
   <si>
+    <t xml:space="preserve">B5</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOSFET-SIG</t>
   </si>
   <si>
+    <t xml:space="preserve">B6</t>
+  </si>
+  <si>
     <t xml:space="preserve">PWM2 – 2</t>
   </si>
   <si>
+    <t xml:space="preserve">B7</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIR</t>
   </si>
   <si>
     <t xml:space="preserve">SIG1</t>
   </si>
   <si>
+    <t xml:space="preserve">B8</t>
+  </si>
+  <si>
     <t xml:space="preserve">SIG2</t>
   </si>
   <si>
@@ -284,6 +335,12 @@
   </si>
   <si>
     <t xml:space="preserve">PWM1 – 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientación de pines TopConnection:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientación Headers Basic (Todas las placas lo siguen)</t>
   </si>
   <si>
     <t xml:space="preserve">PWM1 – 2</t>
@@ -299,7 +356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -326,8 +383,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,7 +401,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF40C4FF"/>
-        <bgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF00B0FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -355,11 +419,35 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF06292"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFFF4081"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0FF"/>
+        <bgColor rgb="FF40C4FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4081"/>
+        <bgColor rgb="FFF06292"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2FF59"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF616161"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -409,6 +497,27 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -435,7 +544,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,6 +595,58 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -500,7 +661,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF5F5F5"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -531,9 +692,9 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FF00B0FF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFB2FF59"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF69F0AE"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -544,8 +705,8 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFD740"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFFF4081"/>
+      <rgbColor rgb="FF616161"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -560,15 +721,94 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>29880</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Imagen 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13160880" y="6177240"/>
+          <a:ext cx="4771440" cy="2525040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>762480</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Imagen 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18715320" y="6177240"/>
+          <a:ext cx="5639040" cy="5203440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N34" activeCellId="0" sqref="N34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L24" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE45" activeCellId="0" sqref="AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,6 +822,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,6 +1469,12 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
+      <c r="N25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
@@ -1255,6 +1504,22 @@
       <c r="K26" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="M26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
@@ -1273,7 +1538,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>6</v>
@@ -1284,6 +1549,22 @@
       <c r="K27" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="M27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
@@ -1302,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>9</v>
@@ -1313,6 +1594,22 @@
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="M28" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="R28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
@@ -1342,6 +1639,22 @@
       <c r="K29" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="M29" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="R29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
@@ -1371,6 +1684,22 @@
       <c r="K30" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="M30" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="R30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
@@ -1380,7 +1709,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>18</v>
@@ -1398,8 +1727,24 @@
         <v>19</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="M31" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="R31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
@@ -1409,7 +1754,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>23</v>
@@ -1429,6 +1774,22 @@
       <c r="K32" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="M32" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P32" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
@@ -1438,7 +1799,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>27</v>
@@ -1458,6 +1819,22 @@
       <c r="K33" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="M33" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O33" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q33" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="R33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
@@ -1476,7 +1853,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>31</v>
@@ -1485,8 +1862,24 @@
         <v>32</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M34" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="O34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P34" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="R34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
@@ -1514,8 +1907,11 @@
         <v>36</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N35" s="23"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
@@ -1525,7 +1921,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>38</v>
@@ -1543,8 +1939,11 @@
         <v>39</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>86</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N36" s="23"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
@@ -1554,7 +1953,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>41</v>
@@ -1572,7 +1971,16 @@
         <v>42</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="N37" s="24"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="24"/>
+      <c r="S37" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,7 +1991,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>44</v>
@@ -1603,6 +2011,9 @@
       <c r="K38" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="N38" s="23"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
@@ -1612,7 +2023,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>47</v>
@@ -1632,6 +2043,9 @@
       <c r="K39" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="N39" s="23"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
@@ -1661,6 +2075,9 @@
       <c r="K40" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="N40" s="23"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
@@ -1690,6 +2107,9 @@
       <c r="K41" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="N41" s="23"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
@@ -1719,6 +2139,9 @@
       <c r="K42" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="N42" s="23"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
@@ -1748,6 +2171,9 @@
       <c r="K43" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="N43" s="23"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
@@ -1777,6 +2203,9 @@
       <c r="K44" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="N44" s="23"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
@@ -1806,6 +2235,9 @@
       <c r="K45" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="N45" s="23"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
@@ -1835,22 +2267,27 @@
       <c r="K46" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="I25:K25"/>
+    <mergeCell ref="N25:P25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>